--- a/tools/luban/Datas/Dungeons.xlsx
+++ b/tools/luban/Datas/Dungeons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A49A2D-DF10-45BD-97E1-6FEBC92791EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D097E25E-5618-4D13-9F44-42080EDEE191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -100,26 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>奉献之城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂阶梯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赦罪教堂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使之家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金宝库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>浩劫洪流</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -156,10 +136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>传奇宝库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GoldEquipment.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,6 +169,86 @@
   </si>
   <si>
     <t>传奇装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑书</t>
+  </si>
+  <si>
+    <t>斧头书</t>
+  </si>
+  <si>
+    <t>长枪书</t>
+  </si>
+  <si>
+    <t>匕首书</t>
+  </si>
+  <si>
+    <t>弓书</t>
+  </si>
+  <si>
+    <t>经验书1</t>
+  </si>
+  <si>
+    <t>经验书2</t>
+  </si>
+  <si>
+    <t>经验书3</t>
+  </si>
+  <si>
+    <t>经验书4</t>
+  </si>
+  <si>
+    <t>幻境之门</t>
+  </si>
+  <si>
+    <t>梦境之巅</t>
+  </si>
+  <si>
+    <t>空灵之谜</t>
+  </si>
+  <si>
+    <t>玄思之石</t>
+  </si>
+  <si>
+    <t>生命之树</t>
+  </si>
+  <si>
+    <t>微光之路</t>
+  </si>
+  <si>
+    <t>意识迷雾</t>
+  </si>
+  <si>
+    <t>唤醒时刻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星辰启示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗忘神殿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震撼虚无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵追求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真相幕布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂迷宫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间余晖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -591,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -623,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -662,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
@@ -683,16 +739,16 @@
         <v>6001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3">
         <v>1001</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3">
         <v>100</v>
@@ -710,16 +766,16 @@
         <v>6002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3">
         <v>1002</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3">
         <v>1000</v>
@@ -737,16 +793,16 @@
         <v>6003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3">
         <v>1003</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3">
         <v>2000</v>
@@ -764,16 +820,16 @@
         <v>6004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3">
         <v>1004</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3">
         <v>3000</v>
@@ -791,16 +847,16 @@
         <v>6005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3">
         <v>1005</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G9" s="3">
         <v>5000</v>
@@ -818,16 +874,16 @@
         <v>6006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3">
         <v>1006</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3">
         <v>10000</v>
@@ -845,16 +901,16 @@
         <v>6007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3">
         <v>1007</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3">
         <v>1000</v>
@@ -868,14 +924,279 @@
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B12" s="3">
+        <v>6008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>6009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>6010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>6011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>6012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>6013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1013</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>6014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1014</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>6015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1015</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>6016</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1016</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tools/luban/Datas/Dungeons.xlsx
+++ b/tools/luban/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D097E25E-5618-4D13-9F44-42080EDEE191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39015F96-321A-427D-9630-89EDBF81E352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>时间余晖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheather_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,13 +635,13 @@
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,22 +655,25 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -676,13 +687,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -690,8 +701,11 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -703,8 +717,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -718,22 +733,25 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>6001</v>
@@ -744,23 +762,26 @@
       <c r="D5" s="3">
         <v>1001</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>200</v>
       </c>
-      <c r="I5" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J5" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>6002</v>
@@ -771,23 +792,26 @@
       <c r="D6" s="3">
         <v>1002</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>1000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>10</v>
       </c>
-      <c r="I6" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J6" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>6003</v>
@@ -798,23 +822,26 @@
       <c r="D7" s="3">
         <v>1003</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>2000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>10</v>
       </c>
-      <c r="I7" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>6004</v>
@@ -825,23 +852,26 @@
       <c r="D8" s="3">
         <v>1004</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10</v>
       </c>
-      <c r="I8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>6005</v>
@@ -852,23 +882,26 @@
       <c r="D9" s="3">
         <v>1005</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J9" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>6006</v>
@@ -879,23 +912,26 @@
       <c r="D10" s="3">
         <v>1006</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>6007</v>
@@ -906,23 +942,26 @@
       <c r="D11" s="3">
         <v>1007</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>1000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J11" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>6008</v>
@@ -933,23 +972,26 @@
       <c r="D12" s="3">
         <v>1008</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>6009</v>
@@ -960,23 +1002,26 @@
       <c r="D13" s="3">
         <v>1009</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>1000</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J13" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>6010</v>
@@ -987,23 +1032,26 @@
       <c r="D14" s="3">
         <v>1010</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J14" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>6011</v>
@@ -1014,23 +1062,26 @@
       <c r="D15" s="3">
         <v>1011</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J15" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>6012</v>
@@ -1041,23 +1092,26 @@
       <c r="D16" s="3">
         <v>1012</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>1000</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J16" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>6013</v>
@@ -1068,23 +1122,26 @@
       <c r="D17" s="3">
         <v>1013</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>6014</v>
@@ -1095,23 +1152,26 @@
       <c r="D18" s="3">
         <v>1014</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J18" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>6015</v>
@@ -1122,23 +1182,26 @@
       <c r="D19" s="3">
         <v>1015</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>1000</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J19" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>6016</v>
@@ -1149,23 +1212,26 @@
       <c r="D20" s="3">
         <v>1016</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1175,8 +1241,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1186,8 +1253,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1197,6 +1265,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tools/luban/Datas/Dungeons.xlsx
+++ b/tools/luban/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39015F96-321A-427D-9630-89EDBF81E352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4651F2FE-D638-4AF7-AB0E-2D4FC99A8958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E20"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -823,7 +823,7 @@
         <v>1003</v>
       </c>
       <c r="E7" s="3">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>24</v>

--- a/tools/luban/Datas/Dungeons.xlsx
+++ b/tools/luban/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4651F2FE-D638-4AF7-AB0E-2D4FC99A8958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C8230C-8E93-449E-8F6D-128F63A69049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,65 +199,63 @@
     <t>经验书4</t>
   </si>
   <si>
-    <t>幻境之门</t>
-  </si>
-  <si>
-    <t>梦境之巅</t>
-  </si>
-  <si>
-    <t>空灵之谜</t>
-  </si>
-  <si>
-    <t>玄思之石</t>
-  </si>
-  <si>
-    <t>生命之树</t>
-  </si>
-  <si>
-    <t>微光之路</t>
-  </si>
-  <si>
-    <t>意识迷雾</t>
-  </si>
-  <si>
-    <t>唤醒时刻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星辰启示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗忘神殿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>震撼虚无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心灵追求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>真相幕布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂迷宫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间余晖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wheather_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>天气id</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>险峻理想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远足算子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家回廊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直言不讳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百折不挠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵感面纱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲欢交融</t>
+  </si>
+  <si>
+    <t>留声回响</t>
+  </si>
+  <si>
+    <t>美妙天堂</t>
+  </si>
+  <si>
+    <t>熵增变化</t>
+  </si>
+  <si>
+    <t>阈限森林</t>
+  </si>
+  <si>
+    <t>危坠楼迭</t>
+  </si>
+  <si>
+    <t>映射规约</t>
+  </si>
+  <si>
+    <t>存储单元</t>
+  </si>
+  <si>
+    <t>廉价影厅</t>
   </si>
 </sst>
 </file>
@@ -626,7 +624,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -733,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
@@ -757,7 +755,7 @@
         <v>6001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3">
         <v>1001</v>
@@ -787,7 +785,7 @@
         <v>6002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3">
         <v>1002</v>
@@ -847,7 +845,7 @@
         <v>6004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3">
         <v>1004</v>
@@ -877,7 +875,7 @@
         <v>6005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3">
         <v>1005</v>
@@ -937,7 +935,7 @@
         <v>6007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3">
         <v>1007</v>
@@ -967,7 +965,7 @@
         <v>6008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3">
         <v>1008</v>
@@ -997,7 +995,7 @@
         <v>6009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3">
         <v>1009</v>
@@ -1027,7 +1025,7 @@
         <v>6010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3">
         <v>1010</v>
@@ -1057,7 +1055,7 @@
         <v>6011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3">
         <v>1011</v>
@@ -1117,7 +1115,7 @@
         <v>6013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3">
         <v>1013</v>
@@ -1147,7 +1145,7 @@
         <v>6014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3">
         <v>1014</v>
@@ -1177,7 +1175,7 @@
         <v>6015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3">
         <v>1015</v>
@@ -1207,7 +1205,7 @@
         <v>6016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3">
         <v>1016</v>

--- a/tools/luban/Datas/Dungeons.xlsx
+++ b/tools/luban/Datas/Dungeons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C8230C-8E93-449E-8F6D-128F63A69049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F42FAF-0BDC-4986-90B2-C4616AF23387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>廉价影厅</t>
+  </si>
+  <si>
+    <t>三层汉堡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神恩石碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,23 +631,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -703,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -717,7 +725,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -749,7 +757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>6001</v>
@@ -779,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>6002</v>
@@ -809,7 +817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>6003</v>
@@ -839,7 +847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>6004</v>
@@ -869,7 +877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>6005</v>
@@ -899,7 +907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>6006</v>
@@ -929,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>6007</v>
@@ -959,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>6008</v>
@@ -989,7 +997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>6009</v>
@@ -1019,7 +1027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>6010</v>
@@ -1049,7 +1057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>6011</v>
@@ -1079,7 +1087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>6012</v>
@@ -1109,7 +1117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>6013</v>
@@ -1139,7 +1147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>6014</v>
@@ -1169,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>6015</v>
@@ -1199,7 +1207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>6016</v>
@@ -1229,19 +1237,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="3">
+        <v>6017</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1016</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1253,7 +1279,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>

--- a/tools/luban/Datas/Dungeons.xlsx
+++ b/tools/luban/Datas/Dungeons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F42FAF-0BDC-4986-90B2-C4616AF23387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1BDD5C-FB4A-4878-B63F-0538A2CD3E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,7 @@
         <v>1000</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
         <v>20</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
         <v>20</v>
@@ -1051,7 +1051,7 @@
         <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>20</v>
@@ -1081,7 +1081,7 @@
         <v>1000</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <v>20</v>
@@ -1111,7 +1111,7 @@
         <v>1000</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
         <v>20</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
         <v>20</v>
@@ -1171,7 +1171,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3">
         <v>20</v>
@@ -1201,7 +1201,7 @@
         <v>1000</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
         <v>20</v>
@@ -1231,7 +1231,7 @@
         <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3">
         <v>20</v>
@@ -1261,7 +1261,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="3">
         <v>20</v>
